--- a/Assets/01_mega_movie_fundraiser.xlsx
+++ b/Assets/01_mega_movie_fundraiser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/Projects/02_Tutorial_Answers/12_Advanced_Programming_Revisited/Mega_Movie_Fundraiser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/Projects/02_Tutorial_Answers/12_Advanced_Programming_Revisited/Mega_Movie_Fundraiser/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4FBD971-4FDC-4C91-81B9-6BDFBEF8125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{D4FBD971-4FDC-4C91-81B9-6BDFBEF8125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93A7C7D9-9EB9-4710-A362-62F7F23F9AB6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
     <sheet name="Ticket Sheet" sheetId="2" r:id="rId2"/>
     <sheet name="Ticket Price" sheetId="3" r:id="rId3"/>
-    <sheet name="snack_test_plan" sheetId="4" r:id="rId4"/>
+    <sheet name="Snack_plan_lists" sheetId="5" r:id="rId4"/>
+    <sheet name="snack_test_plan" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>Movie Fundraiser</t>
   </si>
@@ -326,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -370,6 +371,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1425,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9165A9-5B83-4D71-BD6C-7E67D68F207F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1525,11 +1529,129 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE430889-337A-48E9-B530-E46F37E43CC9}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="257" zoomScaleNormal="257" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="25">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="23">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797FFC9F-B42F-4CE2-BBA3-AA250D2C5317}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/01_mega_movie_fundraiser.xlsx
+++ b/Assets/01_mega_movie_fundraiser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/Projects/02_Tutorial_Answers/12_Advanced_Programming_Revisited/Mega_Movie_Fundraiser/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{D4FBD971-4FDC-4C91-81B9-6BDFBEF8125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93A7C7D9-9EB9-4710-A362-62F7F23F9AB6}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{D4FBD971-4FDC-4C91-81B9-6BDFBEF8125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC8CE3C5-E624-4343-A6EE-C7F9B0C4D486}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Ticket Price" sheetId="3" r:id="rId3"/>
     <sheet name="Snack_plan_lists" sheetId="5" r:id="rId4"/>
     <sheet name="snack_test_plan" sheetId="4" r:id="rId5"/>
+    <sheet name="ticket_snack_plan" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
   <si>
     <t>Movie Fundraiser</t>
   </si>
@@ -207,6 +208,12 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -256,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +306,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor theme="7" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -323,11 +336,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -370,11 +497,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,7 +861,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A10" sqref="A10:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,10 +886,10 @@
       <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1532,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE430889-337A-48E9-B530-E46F37E43CC9}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="257" zoomScaleNormal="257" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,15 +1732,15 @@
       <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1603,13 +1766,13 @@
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -1629,15 +1792,15 @@
       <c r="A6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25">
-        <v>1</v>
-      </c>
-      <c r="D6" s="25">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24">
         <v>3</v>
       </c>
     </row>
@@ -1651,7 +1814,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="B2" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,4 +2073,256 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8F231C-23E3-4601-946A-05E9FE15C5B9}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="33">
+        <v>7.5</v>
+      </c>
+      <c r="C2" s="34">
+        <v>2</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34">
+        <v>1</v>
+      </c>
+      <c r="H2" s="35">
+        <f>C2*2.5+D2*3+E2*4.5+F2*3.25+G2*2</f>
+        <v>11.5</v>
+      </c>
+      <c r="I2" s="36">
+        <f>H2+B2</f>
+        <v>19</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="37">
+        <v>10.5</v>
+      </c>
+      <c r="C3" s="38">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38">
+        <v>0</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38">
+        <v>0</v>
+      </c>
+      <c r="G3" s="38">
+        <v>0</v>
+      </c>
+      <c r="H3" s="39">
+        <f t="shared" ref="H3:H6" si="0">C3*2.5+D3*3+E3*4.5+F3*3.25+G3*2</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="40">
+        <f t="shared" ref="I3:I6" si="1">H3+B3</f>
+        <v>10.5</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="33">
+        <v>10.5</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
+        <v>1</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="I4" s="36">
+        <f t="shared" si="1"/>
+        <v>13.75</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="31">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="37">
+        <v>10.5</v>
+      </c>
+      <c r="C5" s="38">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38">
+        <v>1</v>
+      </c>
+      <c r="H5" s="39">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="I5" s="40">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="29">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="41">
+        <v>6.5</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42">
+        <v>1</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42">
+        <v>3</v>
+      </c>
+      <c r="H6" s="43">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="I6" s="44">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8">
+        <f>SUM(C2:C6)</f>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D2:D6)</f>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E6)</f>
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F2:F6)</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>SUM(G2:G6)</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <f>SUM(H2:H6)</f>
+        <v>32.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/01_mega_movie_fundraiser.xlsx
+++ b/Assets/01_mega_movie_fundraiser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/Projects/02_Tutorial_Answers/12_Advanced_Programming_Revisited/Mega_Movie_Fundraiser/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{D4FBD971-4FDC-4C91-81B9-6BDFBEF8125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC8CE3C5-E624-4343-A6EE-C7F9B0C4D486}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{D4FBD971-4FDC-4C91-81B9-6BDFBEF8125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D71648FB-15C4-4FFE-AC96-8C21FF97F65F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
   </bookViews>
@@ -313,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -343,21 +343,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,19 +413,6 @@
       <left style="thin">
         <color theme="4" tint="-0.249977111117893"/>
       </left>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
       <right/>
       <top style="thin">
         <color theme="4" tint="-0.249977111117893"/>
@@ -454,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -500,44 +472,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,10 +855,10 @@
       <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2080,7 +2049,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,198 +2065,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>7.5</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>2</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34">
-        <v>1</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35">
-        <f>C2*2.5+D2*3+E2*4.5+F2*3.25+G2*2</f>
-        <v>11.5</v>
-      </c>
-      <c r="I2" s="36">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33">
+        <v>1</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33">
+        <v>1</v>
+      </c>
+      <c r="H2" s="33">
+        <f>C2*2.5+D2*3+E2*4.5+F2*2+G2*3.25</f>
+        <v>12.75</v>
+      </c>
+      <c r="I2" s="34">
         <f>H2+B2</f>
-        <v>19</v>
-      </c>
-      <c r="K2" s="26" t="s">
+        <v>20.25</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="26">
         <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="35">
         <v>10.5</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="36">
         <v>0</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="36">
         <v>0</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36">
         <v>0</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="36">
         <v>0</v>
       </c>
-      <c r="H3" s="39">
-        <f t="shared" ref="H3:H6" si="0">C3*2.5+D3*3+E3*4.5+F3*3.25+G3*2</f>
+      <c r="H3" s="36">
+        <f t="shared" ref="H3:H6" si="0">C3*2.5+D3*3+E3*4.5+F3*2+G3*3.25</f>
         <v>0</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="37">
         <f t="shared" ref="I3:I6" si="1">H3+B3</f>
         <v>10.5</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>10.5</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
-        <v>1</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="34">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="30">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="35">
+        <v>10.5</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36">
+        <v>1</v>
+      </c>
+      <c r="H5" s="36">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="28">
         <v>3.25</v>
       </c>
-      <c r="I4" s="36">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="38">
+        <v>6.5</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39">
+        <v>3</v>
+      </c>
+      <c r="H6" s="39">
+        <f t="shared" si="0"/>
+        <v>17.25</v>
+      </c>
+      <c r="I6" s="40">
         <f t="shared" si="1"/>
-        <v>13.75</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="31">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="37">
-        <v>10.5</v>
-      </c>
-      <c r="C5" s="38">
-        <v>1</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38">
-        <v>1</v>
-      </c>
-      <c r="H5" s="39">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="I5" s="40">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="29">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="41">
-        <v>6.5</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42">
-        <v>1</v>
-      </c>
-      <c r="E6" s="42">
-        <v>1</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42">
-        <v>3</v>
-      </c>
-      <c r="H6" s="43">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="I6" s="44">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="K6" s="30" t="s">
+        <v>23.75</v>
+      </c>
+      <c r="K6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <v>2</v>
       </c>
     </row>
@@ -2297,28 +2266,28 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8">
-        <f>SUM(C2:C6)</f>
+        <f t="shared" ref="C8:H8" si="2">SUM(C2:C6)</f>
         <v>3</v>
       </c>
       <c r="D8">
-        <f>SUM(D2:D6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E8">
-        <f>SUM(E2:E6)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F8">
-        <f>SUM(F2:F6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G8">
-        <f>SUM(G2:G6)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H8" s="2">
-        <f>SUM(H2:H6)</f>
-        <v>32.75</v>
+        <f t="shared" si="2"/>
+        <v>37.75</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/01_mega_movie_fundraiser.xlsx
+++ b/Assets/01_mega_movie_fundraiser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/Projects/02_Tutorial_Answers/12_Advanced_Programming_Revisited/Mega_Movie_Fundraiser/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{D4FBD971-4FDC-4C91-81B9-6BDFBEF8125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D71648FB-15C4-4FFE-AC96-8C21FF97F65F}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{D4FBD971-4FDC-4C91-81B9-6BDFBEF8125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7BCBB049-2E92-4D23-9D58-1D2F2A77A41A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Snack_plan_lists" sheetId="5" r:id="rId4"/>
     <sheet name="snack_test_plan" sheetId="4" r:id="rId5"/>
     <sheet name="ticket_snack_plan" sheetId="6" r:id="rId6"/>
+    <sheet name="Surcharge Plan" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="57">
   <si>
     <t>Movie Fundraiser</t>
   </si>
@@ -214,6 +215,9 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
   </si>
 </sst>
 </file>
@@ -313,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -422,11 +426,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -508,6 +580,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41873174-3C06-4FAD-B97F-02F649204032}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8F231C-23E3-4601-946A-05E9FE15C5B9}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2294,4 +2391,419 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0D171E-2521-47E8-A0B6-234ED3FA7B4E}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="48">
+        <v>12</v>
+      </c>
+      <c r="C2" s="49">
+        <f>IF(B2&lt;16,7.5,IF(B2&lt;65,10.5,6.5))</f>
+        <v>7.5</v>
+      </c>
+      <c r="D2" s="48">
+        <v>1</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48">
+        <v>1</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48">
+        <v>1</v>
+      </c>
+      <c r="I2" s="49">
+        <f>D2*2.5+E2*3+F2*4.5+G2*3.25+H2*2</f>
+        <v>9</v>
+      </c>
+      <c r="J2" s="49">
+        <f>C2+I2</f>
+        <v>16.5</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="49">
+        <f>IF(K2="credit",(C2+I2)*0.05,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="50">
+        <f>C2+I2+L2</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="52">
+        <v>16</v>
+      </c>
+      <c r="C3" s="53">
+        <f t="shared" ref="C3:C10" si="0">IF(B3&lt;16,7.5,IF(B3&lt;65,10.5,6.5))</f>
+        <v>10.5</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52">
+        <v>1</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52">
+        <v>1</v>
+      </c>
+      <c r="I3" s="53">
+        <f t="shared" ref="I3:I10" si="1">D3*2.5+E3*3+F3*4.5+G3*3.25+H3*2</f>
+        <v>5</v>
+      </c>
+      <c r="J3" s="53">
+        <f t="shared" ref="J3:J10" si="2">C3+I3</f>
+        <v>15.5</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="53">
+        <f t="shared" ref="L3:L10" si="3">IF(K3="credit",(C3+I3)*0.05,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="54">
+        <f t="shared" ref="M3:M10" si="4">C3+I3+L3</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="48">
+        <v>22</v>
+      </c>
+      <c r="C4" s="49">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48">
+        <v>1</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="J4" s="49">
+        <f t="shared" si="2"/>
+        <v>13.75</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="49">
+        <f t="shared" si="3"/>
+        <v>0.6875</v>
+      </c>
+      <c r="M4" s="50">
+        <f t="shared" si="4"/>
+        <v>14.4375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="52">
+        <v>35</v>
+      </c>
+      <c r="C5" s="53">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="D5" s="52">
+        <v>1</v>
+      </c>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52">
+        <v>1</v>
+      </c>
+      <c r="I5" s="53">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="J5" s="53">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="53">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="54">
+        <f t="shared" si="4"/>
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="48">
+        <v>18</v>
+      </c>
+      <c r="C6" s="49">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48">
+        <v>1</v>
+      </c>
+      <c r="F6" s="48">
+        <v>1</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48">
+        <v>1</v>
+      </c>
+      <c r="I6" s="49">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="J6" s="49">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="50">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="45">
+        <v>68</v>
+      </c>
+      <c r="C7" s="55">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="D7" s="45">
+        <v>1</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45">
+        <v>1</v>
+      </c>
+      <c r="H7" s="45"/>
+      <c r="I7" s="55">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="J7" s="55">
+        <f t="shared" si="2"/>
+        <v>12.25</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="56">
+        <f t="shared" si="4"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.91250000000000009</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="4"/>
+        <v>19.162500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="4"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>16.25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="4"/>
+        <v>16.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/01_mega_movie_fundraiser.xlsx
+++ b/Assets/01_mega_movie_fundraiser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/Projects/02_Tutorial_Answers/12_Advanced_Programming_Revisited/Mega_Movie_Fundraiser/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{D4FBD971-4FDC-4C91-81B9-6BDFBEF8125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7BCBB049-2E92-4D23-9D58-1D2F2A77A41A}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{D4FBD971-4FDC-4C91-81B9-6BDFBEF8125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{763F83AF-2ADE-4BE5-B1F0-C685562CED3A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="snack_test_plan" sheetId="4" r:id="rId5"/>
     <sheet name="ticket_snack_plan" sheetId="6" r:id="rId6"/>
     <sheet name="Surcharge Plan" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="59">
   <si>
     <t>Movie Fundraiser</t>
   </si>
@@ -218,6 +219,12 @@
   </si>
   <si>
     <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Snack Profit</t>
+  </si>
+  <si>
+    <t>Ticket Profit</t>
   </si>
 </sst>
 </file>
@@ -498,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -577,9 +584,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -605,6 +609,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,10 +968,10 @@
       <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1762,7 +1778,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,7 +1896,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2162,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0D171E-2521-47E8-A0B6-234ED3FA7B4E}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -2409,285 +2425,285 @@
     <col min="13" max="13" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:13" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="47">
         <v>12</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="48">
         <f>IF(B2&lt;16,7.5,IF(B2&lt;65,10.5,6.5))</f>
         <v>7.5</v>
       </c>
-      <c r="D2" s="48">
-        <v>1</v>
-      </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48">
-        <v>1</v>
-      </c>
-      <c r="I2" s="49">
+      <c r="D2" s="47">
+        <v>1</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47">
+        <v>1</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47">
+        <v>1</v>
+      </c>
+      <c r="I2" s="48">
         <f>D2*2.5+E2*3+F2*4.5+G2*3.25+H2*2</f>
         <v>9</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="48">
         <f>C2+I2</f>
         <v>16.5</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="48">
         <f>IF(K2="credit",(C2+I2)*0.05,0)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="50">
+      <c r="M2" s="49">
         <f>C2+I2+L2</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="51">
         <v>16</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="52">
         <f t="shared" ref="C3:C10" si="0">IF(B3&lt;16,7.5,IF(B3&lt;65,10.5,6.5))</f>
         <v>10.5</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52">
-        <v>1</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52">
-        <v>1</v>
-      </c>
-      <c r="I3" s="53">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51">
+        <v>1</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51">
+        <v>1</v>
+      </c>
+      <c r="I3" s="52">
         <f t="shared" ref="I3:I10" si="1">D3*2.5+E3*3+F3*4.5+G3*3.25+H3*2</f>
         <v>5</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="52">
         <f t="shared" ref="J3:J10" si="2">C3+I3</f>
         <v>15.5</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="52">
         <f t="shared" ref="L3:L10" si="3">IF(K3="credit",(C3+I3)*0.05,0)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="54">
+      <c r="M3" s="53">
         <f t="shared" ref="M3:M10" si="4">C3+I3+L3</f>
         <v>15.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="47">
         <v>22</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48">
-        <v>1</v>
-      </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47">
+        <v>1</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48">
         <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="48">
         <f t="shared" si="2"/>
         <v>13.75</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="48">
         <f t="shared" si="3"/>
         <v>0.6875</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="49">
         <f t="shared" si="4"/>
         <v>14.4375</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="51">
         <v>35</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="52">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="D5" s="52">
-        <v>1</v>
-      </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52">
-        <v>1</v>
-      </c>
-      <c r="I5" s="53">
+      <c r="D5" s="51">
+        <v>1</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51">
+        <v>1</v>
+      </c>
+      <c r="I5" s="52">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="52">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="52">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="53">
         <f t="shared" si="4"/>
         <v>15.75</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="47">
         <v>18</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48">
-        <v>1</v>
-      </c>
-      <c r="F6" s="48">
-        <v>1</v>
-      </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48">
-        <v>1</v>
-      </c>
-      <c r="I6" s="49">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47">
+        <v>1</v>
+      </c>
+      <c r="F6" s="47">
+        <v>1</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47">
+        <v>1</v>
+      </c>
+      <c r="I6" s="48">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="48">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="49">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>68</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="54">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="D7" s="45">
-        <v>1</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45">
-        <v>1</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="55">
+      <c r="D7" s="44">
+        <v>1</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44">
+        <v>1</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="54">
         <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="54">
         <f t="shared" si="2"/>
         <v>12.25</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="55">
         <f t="shared" si="4"/>
         <v>12.25</v>
       </c>
@@ -2806,4 +2822,339 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CEF898-4DFC-458B-AE2C-55C3E035E0A6}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="34">
+        <v>7.5</v>
+      </c>
+      <c r="C2" s="33">
+        <v>2</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33">
+        <v>1</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33">
+        <v>1</v>
+      </c>
+      <c r="H2" s="62">
+        <f>C2*2.5+D2*3+E2*4.5+F2*2+G2*3.25</f>
+        <v>12.75</v>
+      </c>
+      <c r="I2" s="34">
+        <f>H2+B2</f>
+        <v>20.25</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="37">
+        <v>10.5</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0</v>
+      </c>
+      <c r="D3" s="36">
+        <v>0</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36">
+        <v>0</v>
+      </c>
+      <c r="H3" s="63">
+        <f t="shared" ref="H3:H6" si="0">C3*2.5+D3*3+E3*4.5+F3*2+G3*3.25</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="37">
+        <f t="shared" ref="I3:I6" si="1">H3+B3</f>
+        <v>10.5</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="34">
+        <v>10.5</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="34">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="30">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="37">
+        <v>10.5</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36">
+        <v>1</v>
+      </c>
+      <c r="H5" s="63">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="28">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="40">
+        <v>6.5</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39">
+        <v>3</v>
+      </c>
+      <c r="H6" s="64">
+        <f t="shared" si="0"/>
+        <v>17.25</v>
+      </c>
+      <c r="I6" s="40">
+        <f t="shared" si="1"/>
+        <v>23.75</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="10">
+        <f>SUM(B2:B7)</f>
+        <v>45.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:H8" si="2">SUM(C2:C6)</f>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>37.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <f>C8</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <f>D8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f>E8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>F8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>G8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2">
+        <f>H8*0.2</f>
+        <v>7.5500000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2">
+        <f>B8-5*5</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2">
+        <f>B16+B17</f>
+        <v>28.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/01_mega_movie_fundraiser.xlsx
+++ b/Assets/01_mega_movie_fundraiser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/Projects/02_Tutorial_Answers/12_Advanced_Programming_Revisited/Mega_Movie_Fundraiser/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{D4FBD971-4FDC-4C91-81B9-6BDFBEF8125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{763F83AF-2ADE-4BE5-B1F0-C685562CED3A}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{D4FBD971-4FDC-4C91-81B9-6BDFBEF8125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{035DA963-9EEC-4C04-80FC-39E28B44A5D9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
   <si>
     <t>Movie Fundraiser</t>
   </si>
@@ -609,9 +609,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,6 +616,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -968,10 +968,10 @@
       <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="61"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41873174-3C06-4FAD-B97F-02F649204032}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,10 +1163,11 @@
     <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1216,7 +1217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>8.3874999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>9.3324999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:H12" si="7">SUM(E2:E10)</f>
+        <f t="shared" ref="E12:P12" si="7">SUM(E2:E10)</f>
         <v>3</v>
       </c>
       <c r="F12">
@@ -1648,6 +1649,34 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>55.5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="7"/>
+        <v>2.35</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="7"/>
+        <v>145.35</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="7"/>
+        <v>42.5</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="7"/>
+        <v>29.07</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="7"/>
+        <v>71.569999999999993</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
@@ -1657,16 +1686,12 @@
         <f>COUNTA(A2:A10)</f>
         <v>9</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" s="10">
-        <f>SUM(P2:P12)</f>
-        <v>71.569999999999993</v>
-      </c>
+      <c r="N13" s="3"/>
+      <c r="P13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2828,7 +2853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CEF898-4DFC-458B-AE2C-55C3E035E0A6}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2897,7 +2922,7 @@
       <c r="G2" s="33">
         <v>1</v>
       </c>
-      <c r="H2" s="62">
+      <c r="H2" s="61">
         <f>C2*2.5+D2*3+E2*4.5+F2*2+G2*3.25</f>
         <v>12.75</v>
       </c>
@@ -2932,7 +2957,7 @@
       <c r="G3" s="36">
         <v>0</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="62">
         <f t="shared" ref="H3:H6" si="0">C3*2.5+D3*3+E3*4.5+F3*2+G3*3.25</f>
         <v>0</v>
       </c>
@@ -2961,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="33"/>
-      <c r="H4" s="62">
+      <c r="H4" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2992,7 +3017,7 @@
       <c r="G5" s="36">
         <v>1</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="62">
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
@@ -3025,7 +3050,7 @@
       <c r="G6" s="39">
         <v>3</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="63">
         <f t="shared" si="0"/>
         <v>17.25</v>
       </c>
